--- a/Definition of Ready.xlsx
+++ b/Definition of Ready.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhsuedwf-my.sharepoint.com/personal/kai_puetter_fhsuedwf_onmicrosoft_com/Documents/Studium/Master/WS2122/Agiles Project Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E4C029C-AEE9-404F-9619-CFF169D43FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{6E4C029C-AEE9-404F-9619-CFF169D43FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D9402B2-BDF9-46B5-AC69-25C3E70B0FD1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C50C1FD-3198-4187-9175-A268D403A0BE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>Hypothesen erstellen</t>
+  </si>
+  <si>
+    <t>Ausgefüllt von</t>
+  </si>
+  <si>
+    <t>Hesse</t>
+  </si>
+  <si>
+    <t>Heiser</t>
+  </si>
+  <si>
+    <t>Pütter</t>
+  </si>
+  <si>
+    <t>Netzler</t>
   </si>
 </sst>
 </file>
@@ -126,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -134,6 +149,9 @@
       <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -450,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CA2128-60E8-422C-BF62-8C014C661240}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,6 +662,32 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Definition of Ready.xlsx
+++ b/Definition of Ready.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhsuedwf-my.sharepoint.com/personal/kai_puetter_fhsuedwf_onmicrosoft_com/Documents/Studium/Master/WS2122/Agiles Project Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dozent\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{6E4C029C-AEE9-404F-9619-CFF169D43FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D9402B2-BDF9-46B5-AC69-25C3E70B0FD1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C50C1FD-3198-4187-9175-A268D403A0BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Definition of Ready" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -91,12 +90,21 @@
   </si>
   <si>
     <t>Netzler</t>
+  </si>
+  <si>
+    <t>MVP 2.0</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Pütter/Hesse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,22 +475,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CA2128-60E8-422C-BF62-8C014C661240}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" customWidth="1"/>
-    <col min="4" max="8" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,12 +515,14 @@
       <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -537,12 +547,14 @@
       <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -567,12 +579,14 @@
       <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -597,12 +611,14 @@
       <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -627,12 +643,14 @@
       <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -657,12 +675,14 @@
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -686,6 +706,9 @@
       </c>
       <c r="H8" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Definition of Ready.xlsx
+++ b/Definition of Ready.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dozent\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifernetzler/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BACBB26-028B-9F4F-855A-B0968ACD292D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition of Ready" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -99,12 +91,18 @@
   </si>
   <si>
     <t>Pütter/Hesse</t>
+  </si>
+  <si>
+    <t>E-Mail Dozentenumfrage Aufwandbereitschaft</t>
+  </si>
+  <si>
+    <t>Heiser/ Netzler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,22 +473,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,11 +516,13 @@
       <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -550,11 +550,13 @@
       <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,11 +584,13 @@
       <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -614,11 +618,13 @@
       <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -646,11 +652,13 @@
       <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -678,11 +686,13 @@
       <c r="I6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -709,6 +719,9 @@
       </c>
       <c r="I8" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Definition of Ready.xlsx
+++ b/Definition of Ready.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifernetzler/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Susanna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BACBB26-028B-9F4F-855A-B0968ACD292D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282DB6C2-AA15-4074-89A9-D57C4385FAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2805" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition of Ready" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Heiser/ Netzler</t>
+  </si>
+  <si>
+    <t>Dozentenumfrage Aufwandsbereitschaft</t>
+  </si>
+  <si>
+    <t>Pütter / Hesse</t>
   </si>
 </sst>
 </file>
@@ -480,15 +486,22 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" customWidth="1"/>
-    <col min="4" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,10 +532,12 @@
       <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -553,10 +568,12 @@
       <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -587,10 +604,12 @@
       <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -621,10 +640,12 @@
       <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -655,10 +676,12 @@
       <c r="J5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -689,10 +712,12 @@
       <c r="J6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -722,6 +747,9 @@
       </c>
       <c r="J8" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
